--- a/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/mean/resultados.xlsx
+++ b/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/mean/resultados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Image Name</t>
   </si>
@@ -53,19 +53,16 @@
     <t>[(8, 8)]</t>
   </si>
   <si>
+    <t>[(8, 16)]</t>
+  </si>
+  <si>
+    <t>[(2, 64), (1, 128)]</t>
+  </si>
+  <si>
+    <t>[(4, 32)]</t>
+  </si>
+  <si>
     <t>[(2, 64)]</t>
-  </si>
-  <si>
-    <t>[(1, 128)]</t>
-  </si>
-  <si>
-    <t>[(4, 32)]</t>
-  </si>
-  <si>
-    <t>[(8, 8), (8, 16)]</t>
-  </si>
-  <si>
-    <t>[(8, 16)]</t>
   </si>
 </sst>
 </file>
@@ -533,34 +530,34 @@
         <v>9.216000000000001E-06</v>
       </c>
       <c r="C4" s="1">
-        <v>7.04E-06</v>
+        <v>6.976000000000001E-06</v>
       </c>
       <c r="D4" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="E4" s="1">
         <v>5.12E-06</v>
       </c>
       <c r="F4" s="1">
-        <v>6.976000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="G4" s="1">
         <v>6.144000000000001E-06</v>
       </c>
       <c r="H4" s="1">
+        <v>6.144000000000001E-06</v>
+      </c>
+      <c r="I4" s="1">
+        <v>7.008E-06</v>
+      </c>
+      <c r="J4" s="1">
         <v>7.168000000000001E-06</v>
       </c>
-      <c r="I4" s="1">
-        <v>6.144000000000001E-06</v>
-      </c>
-      <c r="J4" s="1">
-        <v>7.136000000000001E-06</v>
-      </c>
       <c r="K4" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>6.88E-06</v>
       </c>
       <c r="L4" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>6.976000000000001E-06</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -571,40 +568,40 @@
         <v>1.9456E-05</v>
       </c>
       <c r="C5" s="1">
-        <v>9.152E-06</v>
+        <v>1.008E-05</v>
       </c>
       <c r="D5" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>7.008E-06</v>
       </c>
       <c r="E5" s="1">
-        <v>7.104E-06</v>
+        <v>7.136000000000001E-06</v>
       </c>
       <c r="F5" s="1">
-        <v>7.488E-06</v>
+        <v>8.096E-06</v>
       </c>
       <c r="G5" s="1">
+        <v>6.24E-06</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.1264E-05</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6.912E-06</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.0048E-05</v>
+      </c>
+      <c r="K5" s="1">
         <v>6.144000000000001E-06</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1.024E-05</v>
-      </c>
-      <c r="I5" s="1">
-        <v>7.04E-06</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.024E-05</v>
-      </c>
-      <c r="K5" s="1">
-        <v>7.168000000000001E-06</v>
       </c>
       <c r="L5" s="1">
         <v>8.192000000000001E-06</v>
       </c>
       <c r="M5" s="1">
-        <v>7.136000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="N5" s="1">
-        <v>1.2128E-05</v>
+        <v>1.1264E-05</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -615,34 +612,34 @@
         <v>0.000258048</v>
       </c>
       <c r="C6" s="1">
-        <v>7.372800000000001E-05</v>
+        <v>7.4496E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>2.56E-05</v>
+        <v>2.5664E-05</v>
       </c>
       <c r="E6" s="1">
-        <v>2.56E-05</v>
+        <v>2.6624E-05</v>
       </c>
       <c r="F6" s="1">
-        <v>4.8128E-05</v>
+        <v>4.8096E-05</v>
       </c>
       <c r="G6" s="1">
-        <v>1.3184E-05</v>
+        <v>1.2288E-05</v>
       </c>
       <c r="I6" s="1">
-        <v>1.5456E-05</v>
+        <v>1.6384E-05</v>
       </c>
       <c r="J6" s="1">
-        <v>8.9856E-05</v>
+        <v>8.908800000000001E-05</v>
       </c>
       <c r="K6" s="1">
-        <v>2.56E-05</v>
+        <v>2.6624E-05</v>
       </c>
       <c r="L6" s="1">
-        <v>4.736E-05</v>
+        <v>4.707200000000001E-05</v>
       </c>
       <c r="M6" s="1">
-        <v>1.1264E-05</v>
+        <v>1.2288E-05</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -650,22 +647,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.00040032</v>
+        <v>0.000400384</v>
       </c>
       <c r="C7" s="1">
-        <v>0.000108544</v>
+        <v>0.000109568</v>
       </c>
       <c r="D7" s="1">
-        <v>3.1744E-05</v>
+        <v>3.2768E-05</v>
       </c>
       <c r="E7" s="1">
-        <v>2.1504E-05</v>
+        <v>2.16E-05</v>
       </c>
       <c r="I7" s="1">
-        <v>1.536E-05</v>
+        <v>1.6384E-05</v>
       </c>
       <c r="K7" s="1">
-        <v>2.1504E-05</v>
+        <v>2.2272E-05</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -673,25 +670,25 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>0.00155344</v>
+        <v>0.0007758400000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>0.000218112</v>
+        <v>0.000219136</v>
       </c>
       <c r="D8" s="1">
-        <v>6.2464E-05</v>
+        <v>6.3488E-05</v>
       </c>
       <c r="E8" s="1">
-        <v>3.993600000000001E-05</v>
+        <v>4.096E-05</v>
       </c>
       <c r="F8" s="1">
-        <v>6.9632E-05</v>
+        <v>7.049600000000001E-05</v>
       </c>
       <c r="H8" s="1">
-        <v>0.000128</v>
+        <v>0.000126976</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000123616</v>
+        <v>0.000123744</v>
       </c>
       <c r="K8" s="1">
         <v>3.993600000000001E-05</v>
@@ -700,7 +697,7 @@
         <v>6.9632E-05</v>
       </c>
       <c r="N8" s="1">
-        <v>0.000139328</v>
+        <v>0.00013824</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,13 +705,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>0.001733632</v>
+        <v>0.001734656</v>
       </c>
       <c r="C9" s="1">
-        <v>0.000465632</v>
+        <v>0.000465664</v>
       </c>
       <c r="D9" s="1">
-        <v>0.00014512</v>
+        <v>0.000144384</v>
       </c>
       <c r="E9" s="1">
         <v>0.000135168</v>
@@ -723,13 +720,13 @@
         <v>4.608000000000001E-05</v>
       </c>
       <c r="I9" s="1">
-        <v>7.0592E-05</v>
+        <v>7.065600000000001E-05</v>
       </c>
       <c r="K9" s="1">
-        <v>0.000135168</v>
+        <v>0.000135104</v>
       </c>
       <c r="M9" s="1">
-        <v>4.5216E-05</v>
+        <v>4.8128E-05</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -737,34 +734,34 @@
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>0.007021664</v>
+        <v>0.007023616000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>0.001880064</v>
+        <v>0.001882144</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0005076480000000001</v>
+        <v>0.00100656</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000278624</v>
+        <v>0.00027952</v>
       </c>
       <c r="F10" s="1">
-        <v>0.000530368</v>
+        <v>0.0005304320000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>0.001065696</v>
+        <v>0.001068032</v>
       </c>
       <c r="J10" s="1">
         <v>0.001015808</v>
       </c>
       <c r="K10" s="1">
-        <v>0.000269408</v>
+        <v>0.000270336</v>
       </c>
       <c r="L10" s="1">
         <v>0.0005263360000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>0.001160192</v>
+        <v>0.001160288</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -772,31 +769,31 @@
         <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>0.04246732800000001</v>
+        <v>0.040937472</v>
       </c>
       <c r="C11" s="1">
-        <v>0.010520576</v>
+        <v>0.01052672</v>
       </c>
       <c r="D11" s="1">
-        <v>0.002822144</v>
+        <v>0.002829312</v>
       </c>
       <c r="E11" s="1">
-        <v>0.00188416</v>
+        <v>0.001878112</v>
       </c>
       <c r="F11" s="1">
-        <v>0.003774464</v>
+        <v>0.00377728</v>
       </c>
       <c r="G11" s="1">
         <v>0.0008867840000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>0.001014688</v>
+        <v>0.00101568</v>
       </c>
       <c r="K11" s="1">
-        <v>0.001830912</v>
+        <v>0.001833984</v>
       </c>
       <c r="L11" s="1">
-        <v>0.003800896</v>
+        <v>0.00380288</v>
       </c>
     </row>
   </sheetData>
@@ -862,7 +859,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>1.1264E-05</v>
+        <v>1.2288E-05</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -876,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>1.536E-05</v>
+        <v>1.6384E-05</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
@@ -893,7 +890,7 @@
         <v>3.993600000000001E-05</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -904,10 +901,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>4.5216E-05</v>
+        <v>4.608000000000001E-05</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -918,10 +915,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>0.000269408</v>
+        <v>0.000270336</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -935,7 +932,7 @@
         <v>0.0008867840000000001</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/mean/resultados.xlsx
+++ b/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/mean/resultados.xlsx
@@ -50,19 +50,19 @@
     <t>Local Size</t>
   </si>
   <si>
+    <t>[(2, 64)]</t>
+  </si>
+  <si>
+    <t>[(8, 16)]</t>
+  </si>
+  <si>
+    <t>[(1, 128)]</t>
+  </si>
+  <si>
+    <t>[(4, 32)]</t>
+  </si>
+  <si>
     <t>[(8, 8)]</t>
-  </si>
-  <si>
-    <t>[(8, 16)]</t>
-  </si>
-  <si>
-    <t>[(2, 64), (1, 128)]</t>
-  </si>
-  <si>
-    <t>[(4, 32)]</t>
-  </si>
-  <si>
-    <t>[(2, 64)]</t>
   </si>
 </sst>
 </file>
@@ -530,34 +530,34 @@
         <v>9.216000000000001E-06</v>
       </c>
       <c r="C4" s="1">
-        <v>6.976000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="D4" s="1">
+        <v>7.136000000000001E-06</v>
+      </c>
+      <c r="E4" s="1">
         <v>6.144000000000001E-06</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5.12E-06</v>
       </c>
       <c r="F4" s="1">
         <v>7.168000000000001E-06</v>
       </c>
       <c r="G4" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>5.92E-06</v>
       </c>
       <c r="H4" s="1">
         <v>6.144000000000001E-06</v>
       </c>
       <c r="I4" s="1">
-        <v>7.008E-06</v>
+        <v>6.08E-06</v>
       </c>
       <c r="J4" s="1">
         <v>7.168000000000001E-06</v>
       </c>
       <c r="K4" s="1">
-        <v>6.88E-06</v>
+        <v>6.304E-06</v>
       </c>
       <c r="L4" s="1">
-        <v>6.976000000000001E-06</v>
+        <v>6.848E-06</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -568,37 +568,37 @@
         <v>1.9456E-05</v>
       </c>
       <c r="C5" s="1">
-        <v>1.008E-05</v>
+        <v>8.192000000000001E-06</v>
       </c>
       <c r="D5" s="1">
-        <v>7.008E-06</v>
+        <v>6.944000000000001E-06</v>
       </c>
       <c r="E5" s="1">
-        <v>7.136000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="F5" s="1">
-        <v>8.096E-06</v>
+        <v>8.192000000000001E-06</v>
       </c>
       <c r="G5" s="1">
-        <v>6.24E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="H5" s="1">
-        <v>1.1264E-05</v>
+        <v>1.1968E-05</v>
       </c>
       <c r="I5" s="1">
-        <v>6.912E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="J5" s="1">
-        <v>1.0048E-05</v>
+        <v>1.0944E-05</v>
       </c>
       <c r="K5" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>6.816E-06</v>
       </c>
       <c r="L5" s="1">
         <v>8.192000000000001E-06</v>
       </c>
       <c r="M5" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>7.072E-06</v>
       </c>
       <c r="N5" s="1">
         <v>1.1264E-05</v>
@@ -609,37 +609,37 @@
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>0.000258048</v>
+        <v>0.000258176</v>
       </c>
       <c r="C6" s="1">
-        <v>7.4496E-05</v>
+        <v>7.4656E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>2.5664E-05</v>
+        <v>2.7552E-05</v>
       </c>
       <c r="E6" s="1">
-        <v>2.6624E-05</v>
+        <v>2.7424E-05</v>
       </c>
       <c r="F6" s="1">
-        <v>4.8096E-05</v>
+        <v>4.8128E-05</v>
       </c>
       <c r="G6" s="1">
         <v>1.2288E-05</v>
       </c>
       <c r="I6" s="1">
-        <v>1.6384E-05</v>
+        <v>1.552E-05</v>
       </c>
       <c r="J6" s="1">
         <v>8.908800000000001E-05</v>
       </c>
       <c r="K6" s="1">
-        <v>2.6624E-05</v>
+        <v>2.656E-05</v>
       </c>
       <c r="L6" s="1">
-        <v>4.707200000000001E-05</v>
+        <v>4.896000000000001E-05</v>
       </c>
       <c r="M6" s="1">
-        <v>1.2288E-05</v>
+        <v>1.1264E-05</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -647,22 +647,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.000400384</v>
+        <v>0.00040448</v>
       </c>
       <c r="C7" s="1">
         <v>0.000109568</v>
       </c>
       <c r="D7" s="1">
-        <v>3.2768E-05</v>
+        <v>3.456E-05</v>
       </c>
       <c r="E7" s="1">
-        <v>2.16E-05</v>
+        <v>2.1504E-05</v>
       </c>
       <c r="I7" s="1">
-        <v>1.6384E-05</v>
+        <v>1.536E-05</v>
       </c>
       <c r="K7" s="1">
-        <v>2.2272E-05</v>
+        <v>2.1504E-05</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -670,34 +670,34 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>0.0007758400000000001</v>
+        <v>0.000777152</v>
       </c>
       <c r="C8" s="1">
         <v>0.000219136</v>
       </c>
       <c r="D8" s="1">
-        <v>6.3488E-05</v>
+        <v>6.2464E-05</v>
       </c>
       <c r="E8" s="1">
-        <v>4.096E-05</v>
+        <v>3.993600000000001E-05</v>
       </c>
       <c r="F8" s="1">
-        <v>7.049600000000001E-05</v>
+        <v>7.065600000000001E-05</v>
       </c>
       <c r="H8" s="1">
         <v>0.000126976</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000123744</v>
+        <v>0.000123712</v>
       </c>
       <c r="K8" s="1">
-        <v>3.993600000000001E-05</v>
+        <v>3.9968E-05</v>
       </c>
       <c r="L8" s="1">
         <v>6.9632E-05</v>
       </c>
       <c r="N8" s="1">
-        <v>0.00013824</v>
+        <v>0.000139264</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,28 +705,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>0.001734656</v>
+        <v>0.001734624</v>
       </c>
       <c r="C9" s="1">
-        <v>0.000465664</v>
+        <v>0.000466944</v>
       </c>
       <c r="D9" s="1">
-        <v>0.000144384</v>
+        <v>0.000145408</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000135168</v>
+        <v>0.00013488</v>
       </c>
       <c r="G9" s="1">
-        <v>4.608000000000001E-05</v>
+        <v>4.7104E-05</v>
       </c>
       <c r="I9" s="1">
-        <v>7.065600000000001E-05</v>
+        <v>7.1488E-05</v>
       </c>
       <c r="K9" s="1">
-        <v>0.000135104</v>
+        <v>0.00013504</v>
       </c>
       <c r="M9" s="1">
-        <v>4.8128E-05</v>
+        <v>4.588800000000001E-05</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -734,34 +734,34 @@
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>0.007023616000000001</v>
+        <v>0.007024320000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>0.001882144</v>
+        <v>0.001881088</v>
       </c>
       <c r="D10" s="1">
-        <v>0.00100656</v>
+        <v>0.000505888</v>
       </c>
       <c r="E10" s="1">
-        <v>0.00027952</v>
+        <v>0.000279552</v>
       </c>
       <c r="F10" s="1">
-        <v>0.0005304320000000001</v>
+        <v>0.000529408</v>
       </c>
       <c r="H10" s="1">
-        <v>0.001068032</v>
+        <v>0.001067008</v>
       </c>
       <c r="J10" s="1">
-        <v>0.001015808</v>
+        <v>0.002198528</v>
       </c>
       <c r="K10" s="1">
-        <v>0.000270336</v>
+        <v>0.000615424</v>
       </c>
       <c r="L10" s="1">
-        <v>0.0005263360000000001</v>
+        <v>0.00052736</v>
       </c>
       <c r="N10" s="1">
-        <v>0.001160288</v>
+        <v>0.00116096</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -769,31 +769,31 @@
         <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>0.040937472</v>
+        <v>0.040936448</v>
       </c>
       <c r="C11" s="1">
-        <v>0.01052672</v>
+        <v>0.010973184</v>
       </c>
       <c r="D11" s="1">
-        <v>0.002829312</v>
+        <v>0.002818048</v>
       </c>
       <c r="E11" s="1">
-        <v>0.001878112</v>
+        <v>0.00187904</v>
       </c>
       <c r="F11" s="1">
-        <v>0.00377728</v>
+        <v>0.003777536</v>
       </c>
       <c r="G11" s="1">
-        <v>0.0008867840000000001</v>
+        <v>0.000887808</v>
       </c>
       <c r="I11" s="1">
-        <v>0.00101568</v>
+        <v>0.001014784</v>
       </c>
       <c r="K11" s="1">
-        <v>0.001833984</v>
+        <v>0.00183296</v>
       </c>
       <c r="L11" s="1">
-        <v>0.00380288</v>
+        <v>0.00380416</v>
       </c>
     </row>
   </sheetData>
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>5.12E-06</v>
+        <v>5.92E-06</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -845,7 +845,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>6.816E-06</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
@@ -859,7 +859,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>1.2288E-05</v>
+        <v>1.1264E-05</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -873,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>1.6384E-05</v>
+        <v>1.536E-05</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
@@ -890,7 +890,7 @@
         <v>3.993600000000001E-05</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -901,10 +901,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>4.608000000000001E-05</v>
+        <v>4.588800000000001E-05</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -915,10 +915,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>0.000270336</v>
+        <v>0.000279552</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -929,10 +929,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>0.0008867840000000001</v>
+        <v>0.000887808</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
